--- a/Finance/Finance.Account.Source/PrintTemplate/凭证打印模板_v1.xlsx
+++ b/Finance/Finance.Account.Source/PrintTemplate/凭证打印模板_v1.xlsx
@@ -510,19 +510,19 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="7" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -533,6 +533,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="1"/>
@@ -540,6 +541,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -750,11 +752,11 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C1:G2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
